--- a/Offline/TeacherRecruitment/VacancyList.xlsx
+++ b/Offline/TeacherRecruitment/VacancyList.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>Anirban</t>
   </si>
@@ -122,30 +122,12 @@
     <t>Joy + DD</t>
   </si>
   <si>
-    <t>Dr PSC + 1</t>
-  </si>
-  <si>
     <t>English</t>
   </si>
   <si>
-    <t>Avishek</t>
-  </si>
-  <si>
-    <t>Dipanwita + Mum + 1</t>
-  </si>
-  <si>
     <t>Grooming + IELTS</t>
   </si>
   <si>
-    <t>Baikuntha + Mrinal + Subrata</t>
-  </si>
-  <si>
-    <t>Sujit + Avishek + 1</t>
-  </si>
-  <si>
-    <t>Sujit + Avishek</t>
-  </si>
-  <si>
     <t>Sid + Avishek + 1</t>
   </si>
   <si>
@@ -155,15 +137,6 @@
     <t>Earning Potential</t>
   </si>
   <si>
-    <t>&gt; 10 Students</t>
-  </si>
-  <si>
-    <t>&gt; 20 Students</t>
-  </si>
-  <si>
-    <t>&gt; 50 Students</t>
-  </si>
-  <si>
     <t>11 Vacancies</t>
   </si>
   <si>
@@ -177,13 +150,34 @@
   </si>
   <si>
     <t>Jay Sir + Sudipto Bhawal</t>
+  </si>
+  <si>
+    <t>Sujit + Avishek + Suvendu</t>
+  </si>
+  <si>
+    <t>Avishek + Dr Das</t>
+  </si>
+  <si>
+    <t>Dr Das</t>
+  </si>
+  <si>
+    <t>Dr PSC + Sumanta Adhikari</t>
+  </si>
+  <si>
+    <t>Anupam Sir</t>
+  </si>
+  <si>
+    <t>Dipanwita + Pramita + Pradipta</t>
+  </si>
+  <si>
+    <t>Subrata + Baikuntha + Mrinal + Aviksha</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -449,7 +443,7 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -467,7 +461,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -479,10 +473,8 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -491,7 +483,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -529,19 +521,13 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -562,7 +548,13 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -571,7 +563,31 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -583,24 +599,6 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -610,25 +608,25 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -696,7 +694,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -728,9 +726,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -762,6 +761,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -937,66 +937,66 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:V19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:V16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15:S15"/>
+      <selection activeCell="B2" sqref="B2:T16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="11.85546875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="11.88671875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.42578125" style="1" customWidth="1"/>
-    <col min="22" max="23" width="12.5703125" style="1"/>
-    <col min="24" max="24" width="8.85546875" style="1" customWidth="1"/>
-    <col min="25" max="25" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="12.5703125" style="1"/>
+    <col min="17" max="17" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.44140625" style="1" customWidth="1"/>
+    <col min="22" max="23" width="12.5546875" style="1"/>
+    <col min="24" max="24" width="8.88671875" style="1" customWidth="1"/>
+    <col min="25" max="25" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="12.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="15" thickBot="1"/>
-    <row r="2" spans="2:22" ht="15.75" thickBot="1">
-      <c r="B2" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="30"/>
+    <row r="1" spans="2:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="38"/>
     </row>
-    <row r="3" spans="2:22" ht="45.75" thickBot="1">
+    <row r="3" spans="2:22" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1028,10 +1028,10 @@
         <v>10</v>
       </c>
       <c r="L3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="N3" s="3" t="s">
         <v>11</v>
@@ -1055,19 +1055,19 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="2:22" ht="15.75" thickBot="1">
+    <row r="4" spans="2:22" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="40" t="s">
-        <v>40</v>
+      <c r="D4" s="33">
+        <v>1</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>51</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
@@ -1084,15 +1084,15 @@
       <c r="S4" s="6"/>
       <c r="T4" s="8"/>
     </row>
-    <row r="5" spans="2:22" ht="15.75" thickBot="1">
+    <row r="5" spans="2:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="41"/>
+      <c r="C5" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="35"/>
+      <c r="E5" s="23"/>
       <c r="F5" s="10"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
@@ -1108,492 +1108,347 @@
       <c r="R5" s="11"/>
       <c r="S5" s="11"/>
       <c r="T5" s="12"/>
-      <c r="V5" s="13" t="s">
+      <c r="V5" s="48" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="2:22" ht="13.9" customHeight="1">
+    <row r="6" spans="2:22" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="37" t="s">
+      <c r="C6" s="30"/>
+      <c r="D6" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="23"/>
+      <c r="F6" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="40" t="s">
+      <c r="H6" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" s="33">
+        <v>1</v>
+      </c>
+      <c r="L6" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="31">
+      <c r="M6" s="28"/>
+      <c r="N6" s="33">
         <v>1</v>
       </c>
-      <c r="J6" s="31">
+      <c r="O6" s="33">
         <v>1</v>
       </c>
-      <c r="K6" s="43">
+      <c r="P6" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q6" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="R6" s="27">
         <v>1</v>
       </c>
-      <c r="L6" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="M6" s="34"/>
-      <c r="N6" s="43">
-        <v>1</v>
-      </c>
-      <c r="O6" s="43">
-        <v>1</v>
-      </c>
-      <c r="P6" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q6" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="R6" s="31">
-        <v>1</v>
-      </c>
-      <c r="S6" s="34"/>
+      <c r="S6" s="28"/>
       <c r="T6" s="12"/>
-      <c r="V6" s="14" t="s">
+      <c r="V6" s="47" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="2:22" ht="15" customHeight="1" thickBot="1">
+    <row r="7" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="32"/>
-      <c r="S7" s="35"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="30"/>
       <c r="T7" s="12"/>
-      <c r="V7" s="15" t="s">
+      <c r="V7" s="13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="2:22" ht="15" customHeight="1" thickBot="1">
+    <row r="8" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="42"/>
-      <c r="R8" s="33"/>
-      <c r="S8" s="36"/>
-      <c r="T8" s="16" t="s">
+      <c r="C8" s="32"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="32"/>
+      <c r="T8" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="V8" s="17" t="s">
+      <c r="V8" s="15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="2:22" ht="15">
+    <row r="9" spans="2:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="40" t="s">
+      <c r="C9" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="41"/>
-      <c r="F9" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
-      <c r="K9" s="40" t="s">
+      <c r="K9" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="L9" s="32"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="44"/>
-      <c r="P9" s="41"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="23"/>
       <c r="Q9" s="11"/>
       <c r="R9" s="11"/>
       <c r="S9" s="11"/>
       <c r="T9" s="12"/>
     </row>
-    <row r="10" spans="2:22" ht="15.75" thickBot="1">
+    <row r="10" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="42"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="24"/>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="44"/>
-      <c r="O10" s="44"/>
-      <c r="P10" s="41"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="23"/>
       <c r="Q10" s="11"/>
       <c r="R10" s="11"/>
       <c r="S10" s="11"/>
       <c r="T10" s="12"/>
     </row>
-    <row r="11" spans="2:22" ht="15">
+    <row r="11" spans="2:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="23"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="44"/>
-      <c r="O11" s="44"/>
-      <c r="P11" s="41"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="23"/>
       <c r="Q11" s="11"/>
       <c r="R11" s="11"/>
       <c r="S11" s="11"/>
       <c r="T11" s="12"/>
     </row>
-    <row r="12" spans="2:22" ht="15">
+    <row r="12" spans="2:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="23"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="44"/>
-      <c r="P12" s="41"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="23"/>
       <c r="Q12" s="11"/>
       <c r="R12" s="11"/>
       <c r="S12" s="11"/>
       <c r="T12" s="12"/>
     </row>
-    <row r="13" spans="2:22" ht="15">
+    <row r="13" spans="2:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="38"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="23"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="44"/>
-      <c r="O13" s="44"/>
-      <c r="P13" s="41"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="23"/>
       <c r="Q13" s="11"/>
       <c r="R13" s="11"/>
       <c r="S13" s="11"/>
       <c r="T13" s="12"/>
     </row>
-    <row r="14" spans="2:22" ht="15.75" thickBot="1">
-      <c r="B14" s="18" t="s">
+    <row r="14" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="39"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="45"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="42"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="20"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="18"/>
     </row>
-    <row r="15" spans="2:22" ht="54.75" thickBot="1">
-      <c r="B15" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="22">
+    <row r="15" spans="2:22" ht="37.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="20">
         <v>1</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="20">
         <v>1</v>
       </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="46">
+      <c r="E15" s="14"/>
+      <c r="F15" s="15">
+        <v>3</v>
+      </c>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="20">
         <v>1</v>
       </c>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="22">
+      <c r="L15" s="45">
+        <v>2</v>
+      </c>
+      <c r="M15" s="46"/>
+      <c r="N15" s="21">
         <v>1</v>
       </c>
-      <c r="J15" s="22">
+      <c r="O15" s="20">
         <v>1</v>
       </c>
-      <c r="K15" s="22">
-        <v>1</v>
-      </c>
-      <c r="L15" s="25">
-        <v>1</v>
-      </c>
-      <c r="M15" s="26"/>
-      <c r="N15" s="23">
-        <v>1</v>
-      </c>
-      <c r="O15" s="22">
-        <v>1</v>
-      </c>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
       <c r="R15" s="25">
         <v>1</v>
       </c>
       <c r="S15" s="26"/>
-      <c r="T15" s="16"/>
+      <c r="T15" s="14"/>
     </row>
-    <row r="16" spans="2:22" ht="15.75" thickBot="1">
-      <c r="B16" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="29"/>
-      <c r="S16" s="29"/>
-      <c r="T16" s="30"/>
-    </row>
-    <row r="17" spans="2:20" ht="30.75" thickBot="1">
-      <c r="B17" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="22">
-        <v>9000</v>
-      </c>
-      <c r="D17" s="22">
-        <v>9000</v>
-      </c>
-      <c r="E17" s="16"/>
-      <c r="F17" s="46">
-        <v>9000</v>
-      </c>
-      <c r="G17" s="16"/>
-      <c r="H17" s="22">
-        <v>7000</v>
-      </c>
-      <c r="I17" s="22">
-        <v>7000</v>
-      </c>
-      <c r="J17" s="22">
-        <v>5000</v>
-      </c>
-      <c r="K17" s="22">
-        <v>5000</v>
-      </c>
-      <c r="L17" s="25">
-        <v>5000</v>
-      </c>
-      <c r="M17" s="26"/>
-      <c r="N17" s="23">
-        <v>4500</v>
-      </c>
-      <c r="O17" s="23">
-        <v>4500</v>
-      </c>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="27">
-        <v>4500</v>
-      </c>
-      <c r="R17" s="27"/>
-      <c r="S17" s="27"/>
-      <c r="T17" s="16"/>
-    </row>
-    <row r="18" spans="2:20" ht="30.75" thickBot="1">
-      <c r="B18" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="22">
-        <v>18000</v>
-      </c>
-      <c r="D18" s="22">
-        <v>18000</v>
-      </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="46">
-        <v>18000</v>
-      </c>
-      <c r="G18" s="16"/>
-      <c r="H18" s="22">
-        <v>14000</v>
-      </c>
-      <c r="I18" s="22">
-        <v>14000</v>
-      </c>
-      <c r="J18" s="22">
-        <v>10000</v>
-      </c>
-      <c r="K18" s="22">
-        <v>10000</v>
-      </c>
-      <c r="L18" s="25">
-        <v>10000</v>
-      </c>
-      <c r="M18" s="26"/>
-      <c r="N18" s="23">
-        <v>9000</v>
-      </c>
-      <c r="O18" s="23">
-        <v>9000</v>
-      </c>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="27">
-        <v>9000</v>
-      </c>
-      <c r="R18" s="27"/>
-      <c r="S18" s="27"/>
-      <c r="T18" s="16"/>
-    </row>
-    <row r="19" spans="2:20" ht="30.75" thickBot="1">
-      <c r="B19" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="22">
-        <v>36000</v>
-      </c>
-      <c r="D19" s="22">
-        <v>36000</v>
-      </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="46">
-        <v>36000</v>
-      </c>
-      <c r="G19" s="16"/>
-      <c r="H19" s="22">
-        <v>28000</v>
-      </c>
-      <c r="I19" s="22">
-        <v>28000</v>
-      </c>
-      <c r="J19" s="22">
-        <v>20000</v>
-      </c>
-      <c r="K19" s="22">
-        <v>20000</v>
-      </c>
-      <c r="L19" s="25">
-        <v>20000</v>
-      </c>
-      <c r="M19" s="26"/>
-      <c r="N19" s="23">
-        <v>18000</v>
-      </c>
-      <c r="O19" s="23">
-        <v>18000</v>
-      </c>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="27">
-        <v>18000</v>
-      </c>
-      <c r="R19" s="27"/>
-      <c r="S19" s="27"/>
-      <c r="T19" s="16"/>
+    <row r="16" spans="2:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="37"/>
+      <c r="T16" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="23">
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="C9:C14"/>
+    <mergeCell ref="E4:E14"/>
+    <mergeCell ref="L6:M14"/>
+    <mergeCell ref="G6:G14"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="F9:F14"/>
+    <mergeCell ref="D6:D14"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="K9:K14"/>
+    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="H6:H10"/>
+    <mergeCell ref="B2:T2"/>
+    <mergeCell ref="B16:T16"/>
     <mergeCell ref="Q6:Q8"/>
     <mergeCell ref="R15:S15"/>
     <mergeCell ref="R6:S8"/>
     <mergeCell ref="P6:P14"/>
     <mergeCell ref="N6:N14"/>
     <mergeCell ref="O6:O14"/>
-    <mergeCell ref="K9:K14"/>
-    <mergeCell ref="K6:K8"/>
-    <mergeCell ref="H6:H10"/>
-    <mergeCell ref="B2:T2"/>
-    <mergeCell ref="B16:T16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="Q17:S17"/>
-    <mergeCell ref="I6:I8"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="C5:C8"/>
-    <mergeCell ref="C9:C14"/>
-    <mergeCell ref="D9:D14"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="E4:E14"/>
-    <mergeCell ref="L6:M14"/>
-    <mergeCell ref="G6:G14"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="F9:F14"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="Q18:S18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="Q19:S19"/>
-    <mergeCell ref="L15:M15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Offline/TeacherRecruitment/VacancyList.xlsx
+++ b/Offline/TeacherRecruitment/VacancyList.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t>Anirban</t>
   </si>
@@ -119,9 +119,6 @@
     <t>Jay Sir</t>
   </si>
   <si>
-    <t>Jay Sir + 1</t>
-  </si>
-  <si>
     <t>Joy + DD</t>
   </si>
   <si>
@@ -168,13 +165,25 @@
   </si>
   <si>
     <t>11 Vacancies</t>
+  </si>
+  <si>
+    <t>Jay Sir + Anupam Sir + Arijit Sir</t>
+  </si>
+  <si>
+    <t>Alapan</t>
+  </si>
+  <si>
+    <t>Sudipto Bhawal</t>
+  </si>
+  <si>
+    <t>Jay Sir + Sudipto Bhawal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -482,150 +491,144 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -693,7 +696,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -725,10 +728,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -760,7 +762,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -936,642 +937,643 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:V19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R29" sqref="R29"/>
+      <selection activeCell="R15" sqref="R15:S15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.77734375" style="19" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" style="19" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.21875" style="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.88671875" style="19" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="11.88671875" style="19" customWidth="1"/>
-    <col min="14" max="14" width="8.5546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.77734375" style="19" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.33203125" style="19" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.77734375" style="19" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="12.109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.44140625" style="19" customWidth="1"/>
-    <col min="22" max="23" width="12.5546875" style="19"/>
-    <col min="24" max="24" width="8.88671875" style="19" customWidth="1"/>
-    <col min="25" max="25" width="10.44140625" style="19" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.21875" style="19" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="12.5546875" style="19"/>
+    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="11.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.42578125" style="1" customWidth="1"/>
+    <col min="22" max="23" width="12.5703125" style="1"/>
+    <col min="24" max="24" width="8.85546875" style="1" customWidth="1"/>
+    <col min="25" max="25" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="12.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="45" t="s">
+    <row r="1" spans="2:22" ht="15" thickBot="1"/>
+    <row r="2" spans="2:22" ht="15.75" thickBot="1">
+      <c r="B2" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="30"/>
+    </row>
+    <row r="3" spans="2:22" ht="45.75" thickBot="1">
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22" ht="15.75" thickBot="1">
+      <c r="B4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="8"/>
+    </row>
+    <row r="5" spans="2:22" ht="15.75" thickBot="1">
+      <c r="B5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="44"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="12"/>
+      <c r="V5" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" ht="13.9" customHeight="1">
+      <c r="B6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="35"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="31">
+        <v>1</v>
+      </c>
+      <c r="J6" s="31">
+        <v>1</v>
+      </c>
+      <c r="K6" s="43">
+        <v>1</v>
+      </c>
+      <c r="L6" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" s="34"/>
+      <c r="N6" s="43">
+        <v>1</v>
+      </c>
+      <c r="O6" s="43">
+        <v>1</v>
+      </c>
+      <c r="P6" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q6" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="R6" s="31">
+        <v>1</v>
+      </c>
+      <c r="S6" s="34"/>
+      <c r="T6" s="12"/>
+      <c r="V6" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" ht="15" customHeight="1" thickBot="1">
+      <c r="B7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="35"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="35"/>
+      <c r="T7" s="12"/>
+      <c r="V7" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22" ht="15" customHeight="1" thickBot="1">
+      <c r="B8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="36"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="41"/>
+      <c r="Q8" s="42"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="36"/>
+      <c r="T8" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="V8" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22" ht="15">
+      <c r="B9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="41"/>
+      <c r="F9" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" s="32"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="12"/>
+    </row>
+    <row r="10" spans="2:22" ht="15.75" thickBot="1">
+      <c r="B10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="38"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="44"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="12"/>
+    </row>
+    <row r="11" spans="2:22" ht="15">
+      <c r="B11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="38"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="12"/>
+    </row>
+    <row r="12" spans="2:22" ht="15">
+      <c r="B12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="38"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="41"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="12"/>
+    </row>
+    <row r="13" spans="2:22" ht="15">
+      <c r="B13" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="38"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="44"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="12"/>
+    </row>
+    <row r="14" spans="2:22" ht="15.75" thickBot="1">
+      <c r="B14" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="39"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="20"/>
+    </row>
+    <row r="15" spans="2:22" ht="54.75" thickBot="1">
+      <c r="B15" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="22">
+        <v>1</v>
+      </c>
+      <c r="D15" s="22">
+        <v>1</v>
+      </c>
+      <c r="E15" s="16"/>
+      <c r="F15" s="46">
+        <v>1</v>
+      </c>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="22">
+        <v>1</v>
+      </c>
+      <c r="J15" s="22">
+        <v>1</v>
+      </c>
+      <c r="K15" s="22">
+        <v>1</v>
+      </c>
+      <c r="L15" s="25">
+        <v>1</v>
+      </c>
+      <c r="M15" s="26"/>
+      <c r="N15" s="23">
+        <v>1</v>
+      </c>
+      <c r="O15" s="22">
+        <v>1</v>
+      </c>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="25">
+        <v>1</v>
+      </c>
+      <c r="S15" s="26"/>
+      <c r="T15" s="16"/>
+    </row>
+    <row r="16" spans="2:22" ht="15.75" thickBot="1">
+      <c r="B16" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="47"/>
-    </row>
-    <row r="3" spans="2:22" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="M3" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="N3" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="O3" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="P3" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q3" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="R3" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="S3" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="T3" s="22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="2:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="26"/>
-    </row>
-    <row r="5" spans="2:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="29"/>
-      <c r="T5" s="30"/>
-      <c r="V5" s="31" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="2:22" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="7">
-        <v>1</v>
-      </c>
-      <c r="J6" s="7">
-        <v>1</v>
-      </c>
-      <c r="K6" s="1">
-        <v>1</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M6" s="6"/>
-      <c r="N6" s="1">
-        <v>1</v>
-      </c>
-      <c r="O6" s="1">
-        <v>1</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q6" s="7">
-        <v>1</v>
-      </c>
-      <c r="R6" s="8"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="30"/>
-      <c r="V6" s="32" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="30"/>
-      <c r="V7" s="33" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="V8" s="35" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B9" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L9" s="11"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="29"/>
-      <c r="T9" s="30"/>
-    </row>
-    <row r="10" spans="2:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="29"/>
-      <c r="S10" s="29"/>
-      <c r="T10" s="30"/>
-    </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B11" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="29"/>
-      <c r="S11" s="29"/>
-      <c r="T11" s="30"/>
-    </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B12" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="29"/>
-      <c r="S12" s="29"/>
-      <c r="T12" s="30"/>
-    </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B13" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="29"/>
-      <c r="T13" s="30"/>
-    </row>
-    <row r="14" spans="2:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="37"/>
-      <c r="R14" s="37"/>
-      <c r="S14" s="37"/>
-      <c r="T14" s="38"/>
-    </row>
-    <row r="15" spans="2:22" ht="37.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="40">
-        <v>1</v>
-      </c>
-      <c r="D15" s="40">
-        <v>1</v>
-      </c>
-      <c r="E15" s="34"/>
-      <c r="F15" s="35">
-        <v>2</v>
-      </c>
-      <c r="G15" s="34"/>
-      <c r="H15" s="40">
-        <v>1</v>
-      </c>
-      <c r="I15" s="40">
-        <v>1</v>
-      </c>
-      <c r="J15" s="40">
-        <v>1</v>
-      </c>
-      <c r="K15" s="40">
-        <v>1</v>
-      </c>
-      <c r="L15" s="41">
-        <v>1</v>
-      </c>
-      <c r="M15" s="42"/>
-      <c r="N15" s="43">
-        <v>1</v>
-      </c>
-      <c r="O15" s="40">
-        <v>1</v>
-      </c>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="44">
-        <v>1</v>
-      </c>
-      <c r="R15" s="44"/>
-      <c r="S15" s="44"/>
-      <c r="T15" s="34"/>
-    </row>
-    <row r="16" spans="2:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="45" t="s">
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="30"/>
+    </row>
+    <row r="17" spans="2:20" ht="30.75" thickBot="1">
+      <c r="B17" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="46"/>
-      <c r="O16" s="46"/>
-      <c r="P16" s="46"/>
-      <c r="Q16" s="46"/>
-      <c r="R16" s="46"/>
-      <c r="S16" s="46"/>
-      <c r="T16" s="47"/>
-    </row>
-    <row r="17" spans="2:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="48" t="s">
+      <c r="C17" s="22">
+        <v>9000</v>
+      </c>
+      <c r="D17" s="22">
+        <v>9000</v>
+      </c>
+      <c r="E17" s="16"/>
+      <c r="F17" s="46">
+        <v>9000</v>
+      </c>
+      <c r="G17" s="16"/>
+      <c r="H17" s="22">
+        <v>7000</v>
+      </c>
+      <c r="I17" s="22">
+        <v>7000</v>
+      </c>
+      <c r="J17" s="22">
+        <v>5000</v>
+      </c>
+      <c r="K17" s="22">
+        <v>5000</v>
+      </c>
+      <c r="L17" s="25">
+        <v>5000</v>
+      </c>
+      <c r="M17" s="26"/>
+      <c r="N17" s="23">
+        <v>4500</v>
+      </c>
+      <c r="O17" s="23">
+        <v>4500</v>
+      </c>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="27">
+        <v>4500</v>
+      </c>
+      <c r="R17" s="27"/>
+      <c r="S17" s="27"/>
+      <c r="T17" s="16"/>
+    </row>
+    <row r="18" spans="2:20" ht="30.75" thickBot="1">
+      <c r="B18" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="40">
+      <c r="C18" s="22">
+        <v>18000</v>
+      </c>
+      <c r="D18" s="22">
+        <v>18000</v>
+      </c>
+      <c r="E18" s="16"/>
+      <c r="F18" s="46">
+        <v>18000</v>
+      </c>
+      <c r="G18" s="16"/>
+      <c r="H18" s="22">
+        <v>14000</v>
+      </c>
+      <c r="I18" s="22">
+        <v>14000</v>
+      </c>
+      <c r="J18" s="22">
+        <v>10000</v>
+      </c>
+      <c r="K18" s="22">
+        <v>10000</v>
+      </c>
+      <c r="L18" s="25">
+        <v>10000</v>
+      </c>
+      <c r="M18" s="26"/>
+      <c r="N18" s="23">
         <v>9000</v>
       </c>
-      <c r="D17" s="40">
+      <c r="O18" s="23">
         <v>9000</v>
       </c>
-      <c r="E17" s="34"/>
-      <c r="F17" s="35">
+      <c r="P18" s="16"/>
+      <c r="Q18" s="27">
         <v>9000</v>
       </c>
-      <c r="G17" s="34"/>
-      <c r="H17" s="40">
-        <v>7000</v>
-      </c>
-      <c r="I17" s="40">
-        <v>7000</v>
-      </c>
-      <c r="J17" s="40">
-        <v>5000</v>
-      </c>
-      <c r="K17" s="40">
-        <v>5000</v>
-      </c>
-      <c r="L17" s="41">
-        <v>5000</v>
-      </c>
-      <c r="M17" s="42"/>
-      <c r="N17" s="43">
-        <v>4500</v>
-      </c>
-      <c r="O17" s="43">
-        <v>4500</v>
-      </c>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="44">
-        <v>4500</v>
-      </c>
-      <c r="R17" s="44"/>
-      <c r="S17" s="44"/>
-      <c r="T17" s="34"/>
-    </row>
-    <row r="18" spans="2:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="48" t="s">
+      <c r="R18" s="27"/>
+      <c r="S18" s="27"/>
+      <c r="T18" s="16"/>
+    </row>
+    <row r="19" spans="2:20" ht="30.75" thickBot="1">
+      <c r="B19" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="40">
+      <c r="C19" s="22">
+        <v>36000</v>
+      </c>
+      <c r="D19" s="22">
+        <v>36000</v>
+      </c>
+      <c r="E19" s="16"/>
+      <c r="F19" s="46">
+        <v>36000</v>
+      </c>
+      <c r="G19" s="16"/>
+      <c r="H19" s="22">
+        <v>28000</v>
+      </c>
+      <c r="I19" s="22">
+        <v>28000</v>
+      </c>
+      <c r="J19" s="22">
+        <v>20000</v>
+      </c>
+      <c r="K19" s="22">
+        <v>20000</v>
+      </c>
+      <c r="L19" s="25">
+        <v>20000</v>
+      </c>
+      <c r="M19" s="26"/>
+      <c r="N19" s="23">
         <v>18000</v>
       </c>
-      <c r="D18" s="40">
+      <c r="O19" s="23">
         <v>18000</v>
       </c>
-      <c r="E18" s="34"/>
-      <c r="F18" s="35">
+      <c r="P19" s="16"/>
+      <c r="Q19" s="27">
         <v>18000</v>
       </c>
-      <c r="G18" s="34"/>
-      <c r="H18" s="40">
-        <v>14000</v>
-      </c>
-      <c r="I18" s="40">
-        <v>14000</v>
-      </c>
-      <c r="J18" s="40">
-        <v>10000</v>
-      </c>
-      <c r="K18" s="40">
-        <v>10000</v>
-      </c>
-      <c r="L18" s="41">
-        <v>10000</v>
-      </c>
-      <c r="M18" s="42"/>
-      <c r="N18" s="43">
-        <v>9000</v>
-      </c>
-      <c r="O18" s="43">
-        <v>9000</v>
-      </c>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="44">
-        <v>9000</v>
-      </c>
-      <c r="R18" s="44"/>
-      <c r="S18" s="44"/>
-      <c r="T18" s="34"/>
-    </row>
-    <row r="19" spans="2:20" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="40">
-        <v>36000</v>
-      </c>
-      <c r="D19" s="40">
-        <v>36000</v>
-      </c>
-      <c r="E19" s="34"/>
-      <c r="F19" s="35">
-        <v>36000</v>
-      </c>
-      <c r="G19" s="34"/>
-      <c r="H19" s="40">
-        <v>28000</v>
-      </c>
-      <c r="I19" s="40">
-        <v>28000</v>
-      </c>
-      <c r="J19" s="40">
-        <v>20000</v>
-      </c>
-      <c r="K19" s="40">
-        <v>20000</v>
-      </c>
-      <c r="L19" s="41">
-        <v>20000</v>
-      </c>
-      <c r="M19" s="42"/>
-      <c r="N19" s="43">
-        <v>18000</v>
-      </c>
-      <c r="O19" s="43">
-        <v>18000</v>
-      </c>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="44">
-        <v>18000</v>
-      </c>
-      <c r="R19" s="44"/>
-      <c r="S19" s="44"/>
-      <c r="T19" s="34"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="Q18:S18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="Q19:S19"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="Q15:S15"/>
+    <mergeCell ref="Q6:Q8"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="R6:S8"/>
+    <mergeCell ref="P6:P14"/>
+    <mergeCell ref="N6:N14"/>
+    <mergeCell ref="O6:O14"/>
+    <mergeCell ref="K9:K14"/>
+    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="H6:H10"/>
     <mergeCell ref="B2:T2"/>
     <mergeCell ref="B16:T16"/>
     <mergeCell ref="L17:M17"/>
@@ -1584,17 +1586,14 @@
     <mergeCell ref="D4:D8"/>
     <mergeCell ref="E4:E14"/>
     <mergeCell ref="L6:M14"/>
-    <mergeCell ref="Q6:S8"/>
     <mergeCell ref="G6:G14"/>
     <mergeCell ref="F6:F8"/>
     <mergeCell ref="F9:F14"/>
-    <mergeCell ref="P6:P14"/>
-    <mergeCell ref="N6:N14"/>
-    <mergeCell ref="O6:O14"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="K9:K14"/>
-    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="Q18:S18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="Q19:S19"/>
+    <mergeCell ref="L15:M15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
